--- a/20200129 PECB ISO27701 vs GDPR - handy mapping.xlsx
+++ b/20200129 PECB ISO27701 vs GDPR - handy mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\OneDrive - Quest For Security\My Presentations\PECB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7CC3D4-CEE1-4762-82BF-C634789198F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58E4FA1-56C8-44BF-881C-B1AEF7F55535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5C928FB-66D8-47A0-A746-0A28E10AE9ED}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Simplified" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Simplified!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Simplified!$A$1:$D$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,269 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="214">
-  <si>
-    <t xml:space="preserve">5.2.1 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="213">
   <si>
     <t>GDPR article</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.1.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.1.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2.1.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3.1.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3.2.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4.2.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5.2.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5.2.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5.3.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5.3.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5.3.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6.2.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6.2.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6.4.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7.1.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8.2.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8.2.9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9.3.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9.4.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9.4.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10.2.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10.2.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11.1.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11.2.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11.2.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11.3.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12.1.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13.1.1 </t>
-  </si>
-  <si>
     <t>6.13.1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15.1.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15.1.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15.2.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15.2.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3.9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3.10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4.9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5.8 </t>
-  </si>
-  <si>
     <t>Principles relating to processing of personal data</t>
   </si>
   <si>
@@ -677,7 +422,259 @@
     <t>Legally binding PII disclosures</t>
   </si>
   <si>
-    <t>ISO27701 Clause</t>
+    <t>5.2.1</t>
+  </si>
+  <si>
+    <t>5.2.2</t>
+  </si>
+  <si>
+    <t>5.2.3</t>
+  </si>
+  <si>
+    <t>5.2.4</t>
+  </si>
+  <si>
+    <t>5.4.1.2</t>
+  </si>
+  <si>
+    <t>5.4.1.3</t>
+  </si>
+  <si>
+    <t>6.10.2.1</t>
+  </si>
+  <si>
+    <t>6.10.2.4</t>
+  </si>
+  <si>
+    <t>6.11.1.2</t>
+  </si>
+  <si>
+    <t>6.11.2.1</t>
+  </si>
+  <si>
+    <t>6.11.2.5</t>
+  </si>
+  <si>
+    <t>6.11.3.1</t>
+  </si>
+  <si>
+    <t>6.12.1.2</t>
+  </si>
+  <si>
+    <t>6.15.1.1</t>
+  </si>
+  <si>
+    <t>6.15.1.3</t>
+  </si>
+  <si>
+    <t>6.15.2.1</t>
+  </si>
+  <si>
+    <t>6.15.2.3</t>
+  </si>
+  <si>
+    <t>6.2.1.1</t>
+  </si>
+  <si>
+    <t>6.3.1.1</t>
+  </si>
+  <si>
+    <t>6.3.2.1</t>
+  </si>
+  <si>
+    <t>6.4.2.2</t>
+  </si>
+  <si>
+    <t>6.5.2.1</t>
+  </si>
+  <si>
+    <t>6.5.2.2</t>
+  </si>
+  <si>
+    <t>6.5.3.1</t>
+  </si>
+  <si>
+    <t>6.5.3.2</t>
+  </si>
+  <si>
+    <t>6.5.3.3</t>
+  </si>
+  <si>
+    <t>6.6.2.1</t>
+  </si>
+  <si>
+    <t>6.6.2.2</t>
+  </si>
+  <si>
+    <t>6.6.4.2</t>
+  </si>
+  <si>
+    <t>6.7.1.1</t>
+  </si>
+  <si>
+    <t>6.8.2.7</t>
+  </si>
+  <si>
+    <t>6.8.2.9</t>
+  </si>
+  <si>
+    <t>6.9.3.1</t>
+  </si>
+  <si>
+    <t>6.9.4.1</t>
+  </si>
+  <si>
+    <t>6.9.4.2</t>
+  </si>
+  <si>
+    <t>7.2.1</t>
+  </si>
+  <si>
+    <t>7.2.2</t>
+  </si>
+  <si>
+    <t>7.2.3</t>
+  </si>
+  <si>
+    <t>7.2.4</t>
+  </si>
+  <si>
+    <t>7.2.5</t>
+  </si>
+  <si>
+    <t>7.2.6</t>
+  </si>
+  <si>
+    <t>7.2.7</t>
+  </si>
+  <si>
+    <t>7.2.8</t>
+  </si>
+  <si>
+    <t>7.3.1</t>
+  </si>
+  <si>
+    <t>7.3.10</t>
+  </si>
+  <si>
+    <t>7.3.2</t>
+  </si>
+  <si>
+    <t>7.3.3</t>
+  </si>
+  <si>
+    <t>7.3.4</t>
+  </si>
+  <si>
+    <t>7.3.5</t>
+  </si>
+  <si>
+    <t>7.3.6</t>
+  </si>
+  <si>
+    <t>7.3.7</t>
+  </si>
+  <si>
+    <t>7.3.8</t>
+  </si>
+  <si>
+    <t>7.3.9</t>
+  </si>
+  <si>
+    <t>7.4.1</t>
+  </si>
+  <si>
+    <t>7.4.2</t>
+  </si>
+  <si>
+    <t>7.4.3</t>
+  </si>
+  <si>
+    <t>7.4.4</t>
+  </si>
+  <si>
+    <t>7.4.5</t>
+  </si>
+  <si>
+    <t>7.4.6</t>
+  </si>
+  <si>
+    <t>7.4.7</t>
+  </si>
+  <si>
+    <t>7.4.8</t>
+  </si>
+  <si>
+    <t>7.4.9</t>
+  </si>
+  <si>
+    <t>7.5.1</t>
+  </si>
+  <si>
+    <t>7.5.2</t>
+  </si>
+  <si>
+    <t>7.5.3</t>
+  </si>
+  <si>
+    <t>7.5.4</t>
+  </si>
+  <si>
+    <t>8.2.1</t>
+  </si>
+  <si>
+    <t>8.2.2</t>
+  </si>
+  <si>
+    <t>8.2.3</t>
+  </si>
+  <si>
+    <t>8.2.4</t>
+  </si>
+  <si>
+    <t>8.2.5</t>
+  </si>
+  <si>
+    <t>8.2.6</t>
+  </si>
+  <si>
+    <t>8.3.1</t>
+  </si>
+  <si>
+    <t>8.4.1</t>
+  </si>
+  <si>
+    <t>8.4.2</t>
+  </si>
+  <si>
+    <t>8.4.3</t>
+  </si>
+  <si>
+    <t>8.5.1</t>
+  </si>
+  <si>
+    <t>8.5.2</t>
+  </si>
+  <si>
+    <t>8.5.3</t>
+  </si>
+  <si>
+    <t>8.5.4</t>
+  </si>
+  <si>
+    <t>8.5.5</t>
+  </si>
+  <si>
+    <t>8.5.6</t>
+  </si>
+  <si>
+    <t>8.5.7</t>
+  </si>
+  <si>
+    <t>8.5.8</t>
+  </si>
+  <si>
+    <t>ISO27701</t>
   </si>
 </sst>
 </file>
@@ -1059,2853 +1056,3358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9BE266-CE81-4497-9196-750D8EEB0E27}">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="87.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C14">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="C26">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="C27">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="C28">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="C29">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>193</v>
-      </c>
-      <c r="C30">
-        <v>25</v>
-      </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="C37">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="C38">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="C39">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="C43">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="C44">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="C45">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="C46">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="C47">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="C49">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="C50">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="C51">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="C52">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="C54">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="C55">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="C56">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="C58">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="C59">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="C61">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="C62">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="C63">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="C64">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="C65">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="C66">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="B67" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="C67">
         <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="B68" t="s">
-        <v>184</v>
+        <v>49</v>
       </c>
       <c r="C68">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="B69" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="C70">
         <v>32</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="C71">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="B72" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="C72">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="C73">
+        <v>32</v>
+      </c>
+      <c r="D73" t="s">
         <v>27</v>
-      </c>
-      <c r="D73" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="C74">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="C75">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="C76">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C77">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C78">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="C79">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="C80">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>118</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="C81">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>118</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D82" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="C83">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D83" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="C84">
         <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="C85">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="C86">
         <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D87" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="C88">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="B89" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C89">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
         <v>5</v>
-      </c>
-      <c r="D90" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="C91">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="B92" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="B93" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="C93">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="B94" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="B95" t="s">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="C95">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="B96" t="s">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="C96">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D96" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="B97" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D97" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
         <v>5</v>
-      </c>
-      <c r="D98" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="C99">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="B100" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="C100">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="B101" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="C101">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="B102" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="B103" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="C103">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="B104" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D104" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="B105" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C105">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D105" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="B106" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="C106">
         <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="B108" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="B109" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="C109">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="B110" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="C110">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D110" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="B111" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="C111">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
         <v>9</v>
-      </c>
-      <c r="D111" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="B112" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="C112">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D112" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="B113" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="C113">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="B114" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="C114">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="C115">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D115" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="B116" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="C116">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="B117" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="C117">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="B118" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="C118">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="B119" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="C119">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="B120" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="C120">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D120" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="B121" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="C121">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="B122" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="C122">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D122" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="C123">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="C124">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="B125" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="C125">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D125" t="s">
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="B126" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="C126">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D126" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="B127" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="C127">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D127" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="B128" t="s">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="C128">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="B129" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="C129">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="B130" t="s">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="C130">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D130" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="B131" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="C131">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="B132" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="C132">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="B133" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="C133">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="B134" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="C134">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D134" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="B135" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="C135">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="B136" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="C136">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="B137" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="C137">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D137" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="B138" t="s">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="C138">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D138" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="B139" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="C139">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D139" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="B140" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="C140">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D140" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="B141" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="C141">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="B142" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="C142">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>55</v>
+        <v>197</v>
       </c>
       <c r="B143" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="C143">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D143" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="B144" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D144" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="B145" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="C145">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D145" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="B146" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="C146">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D146" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="B147" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="C147">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D147" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="B148" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="C148">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="B149" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="C149">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D149" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="B150" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="C150">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D150" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="B151" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="C151">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D151" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="B152" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="C152">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D152" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="B153" t="s">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="C153">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D153" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>58</v>
+        <v>204</v>
       </c>
       <c r="B154" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="C154">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D154" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="B155" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="C155">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D155" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="B156" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C156">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D156" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="B157" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="C157">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D157" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="B158" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="C158">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D158" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="B159" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="C159">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D159" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="B160" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="C160">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D160" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="C161">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D161" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="B162" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="C162">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D162" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="B163" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="C163">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D163" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="B164" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="C164">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D164" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="B165" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="C165">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D165" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
       <c r="B166" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="C166">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D166" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="B167" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="C167">
         <v>28</v>
       </c>
       <c r="D167" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>70</v>
+        <v>211</v>
       </c>
       <c r="B168" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="C168">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D168" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="B169" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="C169">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D169" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="B170" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="C170">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D170" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="B171" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="C171">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D171" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B172" t="s">
-        <v>199</v>
-      </c>
-      <c r="C172">
-        <v>28</v>
-      </c>
-      <c r="D172" t="s">
-        <v>109</v>
-      </c>
+      <c r="A172" s="3"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B173" t="s">
-        <v>162</v>
-      </c>
-      <c r="C173">
-        <v>5</v>
-      </c>
-      <c r="D173" t="s">
-        <v>87</v>
-      </c>
+      <c r="A173" s="3"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B174" t="s">
-        <v>162</v>
-      </c>
-      <c r="C174">
-        <v>30</v>
-      </c>
-      <c r="D174" t="s">
-        <v>110</v>
-      </c>
+      <c r="A174" s="3"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B175" t="s">
-        <v>189</v>
-      </c>
-      <c r="C175">
-        <v>15</v>
-      </c>
-      <c r="D175" t="s">
-        <v>97</v>
-      </c>
+      <c r="A175" s="3"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B176" t="s">
-        <v>168</v>
-      </c>
-      <c r="C176">
-        <v>5</v>
-      </c>
-      <c r="D176" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B177" t="s">
-        <v>200</v>
-      </c>
-      <c r="C177">
-        <v>28</v>
-      </c>
-      <c r="D177" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B178" t="s">
-        <v>170</v>
-      </c>
-      <c r="C178">
-        <v>5</v>
-      </c>
-      <c r="D178" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B179" t="s">
-        <v>211</v>
-      </c>
-      <c r="C179">
-        <v>44</v>
-      </c>
-      <c r="D179" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B180" t="s">
-        <v>211</v>
-      </c>
-      <c r="C180">
-        <v>45</v>
-      </c>
-      <c r="D180" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B181" t="s">
-        <v>211</v>
-      </c>
-      <c r="C181">
-        <v>46</v>
-      </c>
-      <c r="D181" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B182" t="s">
-        <v>211</v>
-      </c>
-      <c r="C182">
-        <v>46</v>
-      </c>
-      <c r="D182" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B183" t="s">
-        <v>211</v>
-      </c>
-      <c r="C183">
-        <v>46</v>
-      </c>
-      <c r="D183" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B184" t="s">
-        <v>211</v>
-      </c>
-      <c r="C184">
-        <v>47</v>
-      </c>
-      <c r="D184" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B185" t="s">
-        <v>211</v>
-      </c>
-      <c r="C185">
-        <v>48</v>
-      </c>
-      <c r="D185" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B186" t="s">
-        <v>211</v>
-      </c>
-      <c r="C186">
-        <v>49</v>
-      </c>
-      <c r="D186" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B187" t="s">
-        <v>188</v>
-      </c>
-      <c r="C187">
-        <v>5</v>
-      </c>
-      <c r="D187" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B188" t="s">
-        <v>188</v>
-      </c>
-      <c r="C188">
-        <v>30</v>
-      </c>
-      <c r="D188" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B189" t="s">
-        <v>206</v>
-      </c>
-      <c r="C189">
-        <v>30</v>
-      </c>
-      <c r="D189" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B190" t="s">
-        <v>201</v>
-      </c>
-      <c r="C190">
-        <v>28</v>
-      </c>
-      <c r="D190" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B191" t="s">
-        <v>212</v>
-      </c>
-      <c r="C191">
-        <v>28</v>
-      </c>
-      <c r="D191" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B192" t="s">
-        <v>212</v>
-      </c>
-      <c r="C192">
-        <v>28</v>
-      </c>
-      <c r="D192" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B193" t="s">
-        <v>212</v>
-      </c>
-      <c r="C193">
-        <v>48</v>
-      </c>
-      <c r="D193" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B194" t="s">
-        <v>212</v>
-      </c>
-      <c r="C194">
-        <v>49</v>
-      </c>
-      <c r="D194" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C195">
-        <v>49</v>
-      </c>
-      <c r="D195" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B196" t="s">
-        <v>202</v>
-      </c>
-      <c r="C196">
-        <v>17</v>
-      </c>
-      <c r="D196" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B197" t="s">
-        <v>202</v>
-      </c>
-      <c r="C197">
-        <v>28</v>
-      </c>
-      <c r="D197" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B198" t="s">
-        <v>203</v>
-      </c>
-      <c r="C198">
-        <v>28</v>
-      </c>
-      <c r="D198" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B199" t="s">
-        <v>204</v>
-      </c>
-      <c r="C199">
-        <v>15</v>
-      </c>
-      <c r="D199" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B200" t="s">
-        <v>204</v>
-      </c>
-      <c r="C200">
-        <v>20</v>
-      </c>
-      <c r="D200" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B201" t="s">
-        <v>204</v>
-      </c>
-      <c r="C201">
-        <v>28</v>
-      </c>
-      <c r="D201" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B202" t="s">
-        <v>204</v>
-      </c>
-      <c r="C202">
-        <v>29</v>
-      </c>
-      <c r="D202" t="s">
-        <v>108</v>
-      </c>
+      <c r="A176" s="3"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="3"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="3"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="3"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="3"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="3"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="3"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="3"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="3"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="3"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="3"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="3"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="3"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="3"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="3"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="3"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="3"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="3"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="3"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="3"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="3"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="3"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="3"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="3"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="3"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="3"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="3"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="3"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="3"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="3"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="3"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="3"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="3"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="3"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="3"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="3"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="3"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="3"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="3"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="3"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="3"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="3"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="3"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="3"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="3"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="3"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="3"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="3"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="3"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="3"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="3"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="3"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="3"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="3"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="3"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="3"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="3"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="3"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="3"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="3"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="3"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="3"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="3"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="3"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="3"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="3"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="3"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="3"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="3"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="3"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="3"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="3"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="3"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="3"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="3"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="3"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="3"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="3"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="3"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="3"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="3"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="3"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="3"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="3"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="3"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="3"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="3"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="3"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="3"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="3"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="3"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="3"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="3"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="3"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="3"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="3"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="3"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="3"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="3"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="3"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="3"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="3"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="3"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="3"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="3"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="3"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="3"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="3"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="3"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="3"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="3"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="3"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="3"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="3"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="3"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="3"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="3"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="3"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="3"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="3"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="3"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="3"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="3"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="3"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="3"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="3"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="3"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="3"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="3"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="3"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="3"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="3"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="3"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="3"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="3"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="3"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="3"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="3"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="3"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="3"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="3"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="3"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="3"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="3"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="3"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="3"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="3"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="3"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="3"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="3"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="3"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="3"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="3"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="3"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="3"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="3"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="3"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="3"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="3"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="3"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="3"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="3"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="3"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="3"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="3"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="3"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="3"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="3"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="3"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="3"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="3"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="3"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" s="3"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="3"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="3"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="3"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="3"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="3"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="3"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="3"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="3"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="3"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="3"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="3"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="3"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="3"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="3"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="3"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="3"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="3"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="3"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="3"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="3"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" s="3"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" s="3"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" s="3"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" s="3"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" s="3"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" s="3"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" s="3"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" s="3"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" s="3"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" s="3"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" s="3"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" s="3"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" s="3"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" s="3"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" s="3"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" s="3"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" s="3"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" s="3"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" s="3"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" s="3"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" s="3"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" s="3"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" s="3"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" s="3"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" s="3"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" s="3"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" s="3"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" s="3"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" s="3"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" s="3"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" s="3"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" s="3"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" s="3"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" s="3"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" s="3"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" s="3"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" s="3"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" s="3"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" s="3"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" s="3"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" s="3"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" s="3"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" s="3"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" s="3"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" s="3"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" s="3"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415" s="3"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" s="3"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" s="3"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418" s="3"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419" s="3"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420" s="3"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421" s="3"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422" s="3"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423" s="3"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424" s="3"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425" s="3"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426" s="3"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427" s="3"/>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428" s="3"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429" s="3"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430" s="3"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431" s="3"/>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432" s="3"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433" s="3"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434" s="3"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435" s="3"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436" s="3"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437" s="3"/>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438" s="3"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439" s="3"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440" s="3"/>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441" s="3"/>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442" s="3"/>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443" s="3"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444" s="3"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445" s="3"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446" s="3"/>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447" s="3"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448" s="3"/>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449" s="3"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450" s="3"/>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451" s="3"/>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452" s="3"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453" s="3"/>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454" s="3"/>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455" s="3"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456" s="3"/>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457" s="3"/>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A458" s="3"/>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A459" s="3"/>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A460" s="3"/>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A461" s="3"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A462" s="3"/>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A463" s="3"/>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A464" s="3"/>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465" s="3"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466" s="3"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467" s="3"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468" s="3"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469" s="3"/>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470" s="3"/>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471" s="3"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472" s="3"/>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473" s="3"/>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474" s="3"/>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475" s="3"/>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476" s="3"/>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477" s="3"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478" s="3"/>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479" s="3"/>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480" s="3"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481" s="3"/>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482" s="3"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483" s="3"/>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{99BD8E7E-1F27-4782-A7DE-CB1F0CBBA471}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D202">
-      <sortCondition ref="A1"/>
+  <autoFilter ref="A1:D484" xr:uid="{6EDDFF7C-984B-4072-A7ED-C9FD5DE8A8EE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D484">
+      <sortCondition ref="A1:A484"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20200129 PECB ISO27701 vs GDPR - handy mapping.xlsx
+++ b/20200129 PECB ISO27701 vs GDPR - handy mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\OneDrive - Quest For Security\My Presentations\PECB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB38256-DA2B-48FA-B2DE-EC879D5D61F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8821B6-FC4D-4C0E-97D5-7FE3A74B7D40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5C928FB-66D8-47A0-A746-0A28E10AE9ED}"/>
+    <workbookView xWindow="6540" yWindow="3120" windowWidth="17280" windowHeight="8964" xr2:uid="{D5C928FB-66D8-47A0-A746-0A28E10AE9ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Simplified List" sheetId="5" r:id="rId1"/>
@@ -266,9 +266,6 @@
     <t>Derogations for specific situations</t>
   </si>
   <si>
-    <t>ISO27701</t>
-  </si>
-  <si>
     <t>ISO27701 Chapter Name</t>
   </si>
   <si>
@@ -675,6 +672,9 @@
   </si>
   <si>
     <t>Change of subcontractor to process PII</t>
+  </si>
+  <si>
+    <t>ISO27701 Clause</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1069,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,16 +1082,16 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2">
         <v>24</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4">
         <v>28</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5">
         <v>32</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6">
         <v>40</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7">
         <v>41</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8">
         <v>42</v>
@@ -1198,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9">
         <v>31</v>
@@ -1212,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10">
         <v>35</v>
@@ -1226,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11">
         <v>36</v>
@@ -1240,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12">
         <v>32</v>
@@ -1254,7 +1254,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13">
         <v>32</v>
@@ -1268,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14">
         <v>32</v>
@@ -1282,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15">
         <v>32</v>
@@ -1296,7 +1296,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16">
         <v>24</v>
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17">
         <v>27</v>
@@ -1324,7 +1324,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18">
         <v>37</v>
@@ -1338,7 +1338,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19">
         <v>38</v>
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20">
         <v>39</v>
@@ -1366,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1380,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22">
         <v>39</v>
@@ -1394,7 +1394,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -1408,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24">
         <v>32</v>
@@ -1422,7 +1422,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -1436,7 +1436,7 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -1450,7 +1450,7 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C27">
         <v>32</v>
@@ -1464,7 +1464,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -1478,7 +1478,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -1492,7 +1492,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30">
         <v>32</v>
@@ -1506,7 +1506,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -1520,7 +1520,7 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -1534,7 +1534,7 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -1548,7 +1548,7 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -1562,7 +1562,7 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1576,7 +1576,7 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1590,7 +1590,7 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1604,7 +1604,7 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C38">
         <v>32</v>
@@ -1618,7 +1618,7 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1632,7 +1632,7 @@
         <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1646,7 +1646,7 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1660,7 +1660,7 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1674,7 +1674,7 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43">
         <v>28</v>
@@ -1688,7 +1688,7 @@
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C44">
         <v>38</v>
@@ -1702,7 +1702,7 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1716,7 +1716,7 @@
         <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C46">
         <v>32</v>
@@ -1730,7 +1730,7 @@
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C47">
         <v>25</v>
@@ -1744,7 +1744,7 @@
         <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48">
         <v>25</v>
@@ -1758,7 +1758,7 @@
         <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1772,7 +1772,7 @@
         <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1786,7 +1786,7 @@
         <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51">
         <v>28</v>
@@ -1800,7 +1800,7 @@
         <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C52">
         <v>30</v>
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C53">
         <v>32</v>
@@ -1828,7 +1828,7 @@
         <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1842,7 +1842,7 @@
         <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C55">
         <v>33</v>
@@ -1856,7 +1856,7 @@
         <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C56">
         <v>34</v>
@@ -1870,7 +1870,7 @@
         <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C57">
         <v>33</v>
@@ -1884,7 +1884,7 @@
         <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C58">
         <v>34</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60">
         <v>28</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C61">
         <v>30</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C62">
         <v>32</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C64">
         <v>24</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C65">
         <v>32</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C66">
         <v>32</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C68">
         <v>32</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C69">
         <v>10</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C72">
         <v>8</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C73">
         <v>9</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C74">
         <v>17</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C75">
         <v>18</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C76">
         <v>22</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C77">
         <v>8</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C78">
         <v>7</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C79">
         <v>9</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C80">
         <v>35</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C81">
         <v>36</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C83">
         <v>28</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C84">
         <v>26</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C86">
         <v>24</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C87">
         <v>30</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C88">
         <v>12</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C89">
         <v>11</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C90">
         <v>13</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C91">
         <v>14</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C92">
         <v>15</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C93">
         <v>18</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C94">
         <v>21</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C95">
         <v>11</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C96">
         <v>12</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C97">
         <v>13</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C98">
         <v>21</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C99">
         <v>7</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C100">
         <v>13</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C101">
         <v>14</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C102">
         <v>18</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C103">
         <v>13</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C104">
         <v>14</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B105" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C105">
         <v>21</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B106" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -2567,10 +2567,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B107" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C107">
         <v>13</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B108" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C108">
         <v>14</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B109" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C109">
         <v>16</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C110">
         <v>17</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B111" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C111">
         <v>19</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B112" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B113" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C113">
         <v>20</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B114" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C114">
         <v>15</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B115" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C115">
         <v>12</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B116" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C116">
         <v>13</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B117" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C117">
         <v>14</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B118" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C118">
         <v>22</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B119" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C119">
         <v>5</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B120" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C120">
         <v>25</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B121" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C121">
         <v>5</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B122" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B123" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C123">
         <v>5</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B124" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C124">
         <v>6</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C125">
         <v>11</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B126" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C126">
         <v>32</v>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B127" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B128" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C128">
         <v>13</v>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C129">
         <v>14</v>
@@ -2889,10 +2889,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B130" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -2903,10 +2903,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B131" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B132" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C132">
         <v>15</v>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B133" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C133">
         <v>44</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B134" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C134">
         <v>45</v>
@@ -2959,10 +2959,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B135" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C135">
         <v>46</v>
@@ -2973,10 +2973,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B136" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C136">
         <v>47</v>
@@ -2987,10 +2987,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B137" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C137">
         <v>49</v>
@@ -3001,10 +3001,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B138" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C138">
         <v>30</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B139" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C139">
         <v>48</v>
@@ -3029,10 +3029,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B140" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C140">
         <v>15</v>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C141">
         <v>30</v>
@@ -3057,10 +3057,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B142" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C142">
         <v>30</v>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C143">
         <v>30</v>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B144" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C144">
         <v>28</v>
@@ -3099,10 +3099,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B145" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C145">
         <v>35</v>
@@ -3113,10 +3113,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B146" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C146">
         <v>5</v>
@@ -3127,10 +3127,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C147">
         <v>28</v>
@@ -3141,10 +3141,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B148" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C148">
         <v>29</v>
@@ -3155,10 +3155,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C149">
         <v>32</v>
@@ -3169,10 +3169,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B150" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C150">
         <v>7</v>
@@ -3183,10 +3183,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B151" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C151">
         <v>28</v>
@@ -3197,10 +3197,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B152" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C152">
         <v>28</v>
@@ -3211,10 +3211,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B153" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C153">
         <v>30</v>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B154" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C154">
         <v>15</v>
@@ -3239,10 +3239,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B155" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C155">
         <v>17</v>
@@ -3253,10 +3253,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B156" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C156">
         <v>28</v>
@@ -3267,10 +3267,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B157" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C157">
         <v>5</v>
@@ -3281,10 +3281,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B158" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C158">
         <v>28</v>
@@ -3295,10 +3295,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B159" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C159">
         <v>30</v>
@@ -3309,10 +3309,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C160">
         <v>5</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C161">
         <v>44</v>
@@ -3337,10 +3337,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B162" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C162">
         <v>46</v>
@@ -3351,10 +3351,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B163" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C163">
         <v>48</v>
@@ -3365,10 +3365,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B164" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C164">
         <v>49</v>
@@ -3379,10 +3379,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C165">
         <v>30</v>
@@ -3393,10 +3393,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B166" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C166">
         <v>30</v>
@@ -3407,10 +3407,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B167" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C167">
         <v>28</v>
@@ -3421,10 +3421,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B168" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C168">
         <v>48</v>
@@ -3435,10 +3435,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B169" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C169">
         <v>28</v>
@@ -3449,10 +3449,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B170" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C170">
         <v>28</v>
@@ -3463,10 +3463,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B171" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C171">
         <v>28</v>
